--- a/.extra/Imports/Аналоги.xlsx
+++ b/.extra/Imports/Аналоги.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\bauten.loc\.extra\Imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9EA287-7801-4AD9-9150-A6AE734CFABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE665410-E53B-4369-96F1-3126805F5D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B03375F6-64D3-4FD3-B838-58BB0705FD64}"/>
+    <workbookView xWindow="28680" yWindow="4440" windowWidth="20640" windowHeight="11160" xr2:uid="{B03375F6-64D3-4FD3-B838-58BB0705FD64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
